--- a/docs/assets/Gry.xlsx
+++ b/docs/assets/Gry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\cs-htiew-gitbook\.gitbook\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\edu-cs-htiew\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06557D0D-E6CF-4437-8C59-2CA334AFD1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE595B64-08BB-4848-9E85-8C66B8A89C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E41C845A-1096-4782-A7AA-EC50BE25EF91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E41C845A-1096-4782-A7AA-EC50BE25EF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="3" r:id="rId1"/>
@@ -34,11 +34,11 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId9"/>
-    <pivotCache cacheId="4" r:id="rId10"/>
-    <pivotCache cacheId="5" r:id="rId11"/>
-    <pivotCache cacheId="6" r:id="rId12"/>
-    <pivotCache cacheId="7" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
+    <pivotCache cacheId="4" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -579,6 +579,18 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -606,12 +618,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -619,12 +625,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2688,8 +2688,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2782,9 +2781,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2792,7 +2789,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2840,9 +2837,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2850,7 +2845,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2898,9 +2893,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2908,7 +2901,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2956,9 +2949,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2966,7 +2957,7 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3014,9 +3005,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3024,7 +3013,7 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3072,9 +3061,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3082,9 +3069,7 @@
         <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3132,9 +3117,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3142,9 +3125,7 @@
         <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3192,9 +3173,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3202,9 +3181,7 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3252,9 +3229,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3262,9 +3237,7 @@
         <c:idx val="10"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3312,9 +3285,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3322,9 +3293,7 @@
         <c:idx val="11"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3372,9 +3341,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3382,9 +3349,7 @@
         <c:idx val="12"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3432,9 +3397,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3442,10 +3405,7 @@
         <c:idx val="13"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="80000"/>
-              <a:lumOff val="20000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3493,9 +3453,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3503,10 +3461,7 @@
         <c:idx val="14"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="80000"/>
-              <a:lumOff val="20000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3554,9 +3509,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3564,10 +3517,7 @@
         <c:idx val="15"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="80000"/>
-              <a:lumOff val="20000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3615,9 +3565,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3625,10 +3573,7 @@
         <c:idx val="16"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="80000"/>
-              <a:lumOff val="20000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3676,9 +3621,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3686,10 +3629,7 @@
         <c:idx val="17"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="80000"/>
-              <a:lumOff val="20000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3737,9 +3677,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3747,10 +3685,7 @@
         <c:idx val="18"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="80000"/>
-              <a:lumOff val="20000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3798,9 +3733,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -14064,7 +13997,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3639437D-5A72-4CF8-927A-EA613E8E1468}" name="Tabela przestawna4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Rok">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3639437D-5A72-4CF8-927A-EA613E8E1468}" name="Tabela przestawna4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Rok">
   <location ref="H1:I27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -14340,7 +14273,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44547C8C-CD91-438C-82E4-E38E2B94DAB5}" name="Tabela przestawna5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Platforma">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44547C8C-CD91-438C-82E4-E38E2B94DAB5}" name="Tabela przestawna5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Platforma">
   <location ref="G1:J20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -14494,7 +14427,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F17B3F06-026D-4F47-B1E1-56D1FE283FD9}" name="Tabela przestawna6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Platforma">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F17B3F06-026D-4F47-B1E1-56D1FE283FD9}" name="Tabela przestawna6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Platforma">
   <location ref="G1:H20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -14833,7 +14766,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{489F6F3A-C8A4-4BA5-AC4B-201A3E0F4A61}" name="Tabela przestawna7" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Platforma">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{489F6F3A-C8A4-4BA5-AC4B-201A3E0F4A61}" name="Tabela przestawna7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Platforma">
   <location ref="G1:H20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -14956,7 +14889,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8237A655-1A78-4AB7-A4D6-01FCCB3D435C}" name="Tabela przestawna8" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Rok">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8237A655-1A78-4AB7-A4D6-01FCCB3D435C}" name="Tabela przestawna8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Rok">
   <location ref="G1:H27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -15358,11 +15291,11 @@
   <autoFilter ref="A1:F101" xr:uid="{41965D3D-3A50-431D-9070-57350019862E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E0E04B80-1213-4DFC-B951-6DCEB0C89375}" uniqueName="1" name="Ranga" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{2B346A82-8B75-4D24-8CD7-69DAC33C73F1}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{C2F18955-4BFB-44A3-97CE-A272D818C3DD}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{2B346A82-8B75-4D24-8CD7-69DAC33C73F1}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{C2F18955-4BFB-44A3-97CE-A272D818C3DD}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="23"/>
     <tableColumn id="4" xr3:uid="{60FEAA29-CF8C-4596-9FDA-161128EBAAB7}" uniqueName="4" name="Metascore" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{932ED78F-5811-4B48-9CF8-4BC491128DC7}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{288D1B53-F658-4146-B281-6CCDC97C8334}" uniqueName="6" name="Rok" queryTableFieldId="6" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{932ED78F-5811-4B48-9CF8-4BC491128DC7}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{288D1B53-F658-4146-B281-6CCDC97C8334}" uniqueName="6" name="Rok" queryTableFieldId="6" dataDxfId="21">
       <calculatedColumnFormula>YEAR(E2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15375,11 +15308,11 @@
   <autoFilter ref="A1:F101" xr:uid="{D33EAF5F-A2EB-4356-BC40-0BBFAD6B350D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C3E20723-3002-4080-B5E5-5852D9C3AFB5}" uniqueName="1" name="Ranga" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F129F995-4FFD-4636-9AFE-22216D8E3350}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{FDC6014D-4712-449C-8AAD-F279461A523E}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F129F995-4FFD-4636-9AFE-22216D8E3350}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{FDC6014D-4712-449C-8AAD-F279461A523E}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{CC64E826-3E54-4575-AF6E-55EE271EE510}" uniqueName="4" name="Metascore" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{32E39C60-96B7-47D3-95B2-741CFEAA3049}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{55699368-AA72-453C-957F-46965AEF9FE7}" uniqueName="6" name="mie" queryTableFieldId="6" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{32E39C60-96B7-47D3-95B2-741CFEAA3049}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{55699368-AA72-453C-957F-46965AEF9FE7}" uniqueName="6" name="mie" queryTableFieldId="6" dataDxfId="17">
       <calculatedColumnFormula>MONTH(E:E)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15410,7 +15343,7 @@
     <sortCondition ref="M1:M71"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9A31559F-183A-46D1-9A8E-249F7FFDA4DB}" name="Platforma" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{9A31559F-183A-46D1-9A8E-249F7FFDA4DB}" name="Platforma" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{67DA9EC7-270E-493D-A8CC-62B1C48DCCB1}" name="Miesiąc"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15422,10 +15355,10 @@
   <autoFilter ref="A1:E101" xr:uid="{04E8B770-6292-494B-AF9B-10ACE78A7C02}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B1A483D3-4543-43FF-815C-83507C568DA1}" uniqueName="1" name="Ranga" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{843D2F52-D715-4E5C-B3F0-F2E2CDDA11E4}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2C3E7401-0914-4973-A4E5-AD72FA5F8C0B}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{843D2F52-D715-4E5C-B3F0-F2E2CDDA11E4}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2C3E7401-0914-4973-A4E5-AD72FA5F8C0B}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{D63BE302-8B6A-4117-A45A-B2554423A18E}" uniqueName="4" name="Metascore" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{9C7996B3-F93E-4478-8182-369872D03635}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{9C7996B3-F93E-4478-8182-369872D03635}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15436,10 +15369,10 @@
   <autoFilter ref="A1:E101" xr:uid="{6C4EFE4E-FBCF-42F0-97F1-46E1D6BC91A7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{917D7899-F94C-4BB7-BD56-D0366B063D9A}" uniqueName="1" name="Ranga" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{6EF497FF-BBC6-479C-95E8-5F1B8A2331FF}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{E969AD1B-7204-48AB-B169-4271DBC7E4FB}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{6EF497FF-BBC6-479C-95E8-5F1B8A2331FF}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{E969AD1B-7204-48AB-B169-4271DBC7E4FB}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{6A00B8E6-01FB-41B1-AF38-A465112ACB01}" uniqueName="4" name="Metascore" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{3B079309-7E61-4D97-9F10-2E4FCE7FB478}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{3B079309-7E61-4D97-9F10-2E4FCE7FB478}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15450,10 +15383,10 @@
   <autoFilter ref="A1:E101" xr:uid="{451A0774-D762-400F-839F-DEA222F7BE2A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{306962A7-2753-48DC-A2BC-9A25E38A41FA}" uniqueName="1" name="Ranga" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{2CF98CB8-EF8D-4710-B19E-9C4F8A46136D}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{8267BC19-B9D3-4E1D-B93F-AF77C27D41E0}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{2CF98CB8-EF8D-4710-B19E-9C4F8A46136D}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{8267BC19-B9D3-4E1D-B93F-AF77C27D41E0}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{5915E5B0-96B6-4790-BCCB-A43640CED777}" uniqueName="4" name="Metascore" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{A224051C-8CB4-4A11-ABD3-C54A4BAB6F8B}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{A224051C-8CB4-4A11-ABD3-C54A4BAB6F8B}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15464,19 +15397,19 @@
   <autoFilter ref="A1:E101" xr:uid="{3CC54FB3-D280-484A-9892-608127234A0E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8B9BC66D-FCE9-434C-862B-E271709E9EAB}" uniqueName="1" name="Ranga" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{3910F674-105A-4761-B4EE-4FF321195E91}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{AC0CA00E-2EC9-4877-95BF-19D806820831}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{3910F674-105A-4761-B4EE-4FF321195E91}" uniqueName="2" name="Tytuł" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{AC0CA00E-2EC9-4877-95BF-19D806820831}" uniqueName="3" name="Platforma" queryTableFieldId="3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{FAA7A493-6268-40F5-8089-DE9034EC68A3}" uniqueName="4" name="Metascore" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{25C5C01C-9EDD-4D6E-B34B-23160EBBE58F}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{25C5C01C-9EDD-4D6E-B34B-23160EBBE58F}" uniqueName="5" name="Data" queryTableFieldId="5" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -15514,7 +15447,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -15620,7 +15553,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15762,7 +15695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15772,7 +15705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1144AD61-E121-48CB-85B0-A02A6FA68EC5}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -19905,11 +19838,11 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>COUNTIF(F:F,H2)</f>
+        <f t="shared" ref="I2:I13" si="1">COUNTIF(F:F,H2)</f>
         <v>5</v>
       </c>
       <c r="J2">
-        <f>COUNTIF(M:M,H2)</f>
+        <f t="shared" ref="J2:J13" si="2">COUNTIF(M:M,H2)</f>
         <v>5</v>
       </c>
       <c r="L2" t="s">
@@ -19943,11 +19876,11 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f>COUNTIF(F:F,H3)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J3">
-        <f>COUNTIF(M:M,H3)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L3" t="s">
@@ -19981,11 +19914,11 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f>COUNTIF(F:F,H4)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J4">
-        <f>COUNTIF(M:M,H4)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L4" t="s">
@@ -20019,11 +19952,11 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <f>COUNTIF(F:F,H5)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J5">
-        <f>COUNTIF(M:M,H5)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L5" t="s">
@@ -20057,11 +19990,11 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f>COUNTIF(F:F,H6)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J6">
-        <f>COUNTIF(M:M,H6)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L6" t="s">
@@ -20095,11 +20028,11 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <f>COUNTIF(F:F,H7)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J7">
-        <f>COUNTIF(M:M,H7)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L7" t="s">
@@ -20133,11 +20066,11 @@
         <v>7</v>
       </c>
       <c r="I8">
-        <f>COUNTIF(F:F,H8)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J8">
-        <f>COUNTIF(M:M,H8)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L8" t="s">
@@ -20171,11 +20104,11 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <f>COUNTIF(F:F,H9)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J9">
-        <f>COUNTIF(M:M,H9)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L9" t="s">
@@ -20209,11 +20142,11 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <f>COUNTIF(F:F,H10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J10">
-        <f>COUNTIF(M:M,H10)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L10" t="s">
@@ -20247,11 +20180,11 @@
         <v>10</v>
       </c>
       <c r="I11">
-        <f>COUNTIF(F:F,H11)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="J11">
-        <f>COUNTIF(M:M,H11)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="L11" t="s">
@@ -20285,11 +20218,11 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <f>COUNTIF(F:F,H12)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J12">
-        <f>COUNTIF(M:M,H12)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L12" t="s">
@@ -20323,11 +20256,11 @@
         <v>12</v>
       </c>
       <c r="I13">
-        <f>COUNTIF(F:F,H13)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J13">
-        <f>COUNTIF(M:M,H13)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L13" t="s">
@@ -20894,7 +20827,7 @@
         <v>40834</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F65" si="1">MONTH(E:E)</f>
+        <f t="shared" ref="F34:F65" si="3">MONTH(E:E)</f>
         <v>10</v>
       </c>
       <c r="L34" t="s">
@@ -20921,7 +20854,7 @@
         <v>44740</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="L35" t="s">
@@ -20948,7 +20881,7 @@
         <v>35914</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L36" t="s">
@@ -20975,7 +20908,7 @@
         <v>44617</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L37" t="s">
@@ -21002,7 +20935,7 @@
         <v>40204</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L38" t="s">
@@ -21029,7 +20962,7 @@
         <v>44295</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L39" t="s">
@@ -21056,7 +20989,7 @@
         <v>39062</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="L40" t="s">
@@ -21083,7 +21016,7 @@
         <v>44617</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L41" t="s">
@@ -21110,7 +21043,7 @@
         <v>40858</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="L42" t="s">
@@ -21137,7 +21070,7 @@
         <v>36118</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="L43" t="s">
@@ -21164,7 +21097,7 @@
         <v>38650</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L44" t="s">
@@ -21191,7 +21124,7 @@
         <v>37704</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L45" t="s">
@@ -21218,7 +21151,7 @@
         <v>35915</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L46" t="s">
@@ -21245,7 +21178,7 @@
         <v>39315</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L47" t="s">
@@ -21272,7 +21205,7 @@
         <v>37207</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="L48" t="s">
@@ -21299,7 +21232,7 @@
         <v>37925</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L49" t="s">
@@ -21326,7 +21259,7 @@
         <v>36793</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="L50" t="s">
@@ -21353,7 +21286,7 @@
         <v>38286</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L51" t="s">
@@ -21380,7 +21313,7 @@
         <v>37556</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L52" t="s">
@@ -21407,7 +21340,7 @@
         <v>39748</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L53" t="s">
@@ -21434,7 +21367,7 @@
         <v>37942</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="L54" t="s">
@@ -21461,7 +21394,7 @@
         <v>40316</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="L55" t="s">
@@ -21488,7 +21421,7 @@
         <v>37081</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="L56" t="s">
@@ -21515,7 +21448,7 @@
         <v>38300</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="L57" t="s">
@@ -21542,7 +21475,7 @@
         <v>44855</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L58" t="s">
@@ -21569,7 +21502,7 @@
         <v>37593</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="L59" t="s">
@@ -21596,7 +21529,7 @@
         <v>36824</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L60" t="s">
@@ -21623,7 +21556,7 @@
         <v>41439</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="L61" t="s">
@@ -21650,7 +21583,7 @@
         <v>44965</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L62" t="s">
@@ -21677,7 +21610,7 @@
         <v>39040</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="L63" t="s">
@@ -21704,7 +21637,7 @@
         <v>37480</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L64" t="s">
@@ -21731,7 +21664,7 @@
         <v>37041</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="L65" t="s">
@@ -21758,7 +21691,7 @@
         <v>43921</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F97" si="2">MONTH(E:E)</f>
+        <f t="shared" ref="F66:F97" si="4">MONTH(E:E)</f>
         <v>3</v>
       </c>
       <c r="L66" t="s">
@@ -21785,7 +21718,7 @@
         <v>41849</v>
       </c>
       <c r="F67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L67" t="s">
@@ -21812,7 +21745,7 @@
         <v>40651</v>
       </c>
       <c r="F68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L68" t="s">
@@ -21839,7 +21772,7 @@
         <v>40316</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="L69" t="s">
@@ -21866,7 +21799,7 @@
         <v>40652</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L70" t="s">
@@ -21893,7 +21826,7 @@
         <v>42248</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="L71" t="s">
@@ -21920,7 +21853,7 @@
         <v>40652</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -21941,7 +21874,7 @@
         <v>44477</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -21962,7 +21895,7 @@
         <v>39734</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -21983,7 +21916,7 @@
         <v>40857</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -22004,7 +21937,7 @@
         <v>41359</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -22025,7 +21958,7 @@
         <v>36843</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -22046,7 +21979,7 @@
         <v>40127</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -22067,7 +22000,7 @@
         <v>43210</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -22088,7 +22021,7 @@
         <v>37552</v>
       </c>
       <c r="F80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -22109,7 +22042,7 @@
         <v>37180</v>
       </c>
       <c r="F81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -22130,7 +22063,7 @@
         <v>39391</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -22151,7 +22084,7 @@
         <v>37122</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -22172,7 +22105,7 @@
         <v>40834</v>
       </c>
       <c r="F84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -22193,7 +22126,7 @@
         <v>44855</v>
       </c>
       <c r="F85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -22214,7 +22147,7 @@
         <v>40204</v>
       </c>
       <c r="F86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -22235,7 +22168,7 @@
         <v>40713</v>
       </c>
       <c r="F87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -22256,7 +22189,7 @@
         <v>36753</v>
       </c>
       <c r="F88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -22277,7 +22210,7 @@
         <v>43126</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -22298,7 +22231,7 @@
         <v>39742</v>
       </c>
       <c r="F90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -22319,7 +22252,7 @@
         <v>40560</v>
       </c>
       <c r="F91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -22340,7 +22273,7 @@
         <v>37753</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -22361,7 +22294,7 @@
         <v>37845</v>
       </c>
       <c r="F93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -22382,7 +22315,7 @@
         <v>39028</v>
       </c>
       <c r="F94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -22403,7 +22336,7 @@
         <v>38796</v>
       </c>
       <c r="F95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -22424,7 +22357,7 @@
         <v>44855</v>
       </c>
       <c r="F96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -22445,7 +22378,7 @@
         <v>35124</v>
       </c>
       <c r="F97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -22466,7 +22399,7 @@
         <v>35238</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98:F101" si="3">MONTH(E:E)</f>
+        <f t="shared" ref="F98:F101" si="5">MONTH(E:E)</f>
         <v>6</v>
       </c>
     </row>
@@ -22487,7 +22420,7 @@
         <v>39391</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -22508,7 +22441,7 @@
         <v>41358</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -22529,7 +22462,7 @@
         <v>39350</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -22548,7 +22481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BFA8F9-E1FF-461D-96F5-CEEAADB7A66D}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -28341,8 +28274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D42301-7EB0-4BC7-B0BF-134E76ECAD97}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28425,11 +28358,11 @@
         <v>96</v>
       </c>
       <c r="L2" t="str">
-        <f>VLOOKUP(H2,A:E,2)</f>
+        <f t="shared" ref="L2:L26" si="0">VLOOKUP(H2,A:E,2)</f>
         <v>Sid Meier's Civilization II</v>
       </c>
       <c r="M2" t="str">
-        <f>VLOOKUP(H2,A:E,3)</f>
+        <f t="shared" ref="M2:M26" si="1">VLOOKUP(H2,A:E,3)</f>
         <v>PC</v>
       </c>
     </row>
@@ -28462,11 +28395,11 @@
         <v>28</v>
       </c>
       <c r="L3" t="str">
-        <f>VLOOKUP(H3,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>GoldenEye 007</v>
       </c>
       <c r="M3" t="str">
-        <f>VLOOKUP(H3,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>Nintendo 64</v>
       </c>
     </row>
@@ -28499,11 +28432,11 @@
         <v>1</v>
       </c>
       <c r="L4" t="str">
-        <f>VLOOKUP(H4,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>The Legend of Zelda: Ocarina of Time</v>
       </c>
       <c r="M4" t="str">
-        <f>VLOOKUP(H4,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>Nintendo 64</v>
       </c>
     </row>
@@ -28536,11 +28469,11 @@
         <v>4</v>
       </c>
       <c r="L5" t="str">
-        <f>VLOOKUP(H5,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>SoulCalibur</v>
       </c>
       <c r="M5" t="str">
-        <f>VLOOKUP(H5,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>Dreamcast</v>
       </c>
     </row>
@@ -28573,11 +28506,11 @@
         <v>2</v>
       </c>
       <c r="L6" t="str">
-        <f>VLOOKUP(H6,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Tony Hawk's Pro Skater 2</v>
       </c>
       <c r="M6" t="str">
-        <f>VLOOKUP(H6,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>PlayStation</v>
       </c>
     </row>
@@ -28610,11 +28543,11 @@
         <v>15</v>
       </c>
       <c r="L7" t="str">
-        <f>VLOOKUP(H7,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Tony Hawk's Pro Skater 3</v>
       </c>
       <c r="M7" t="str">
-        <f>VLOOKUP(H7,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>PlayStation 2</v>
       </c>
     </row>
@@ -28647,11 +28580,11 @@
         <v>19</v>
       </c>
       <c r="L8" t="str">
-        <f>VLOOKUP(H8,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Metroid Prime</v>
       </c>
       <c r="M8" t="str">
-        <f>VLOOKUP(H8,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>GameCube</v>
       </c>
     </row>
@@ -28684,11 +28617,11 @@
         <v>44</v>
       </c>
       <c r="L9" t="str">
-        <f>VLOOKUP(H9,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>The Legend of Zelda: The Wind Waker</v>
       </c>
       <c r="M9" t="str">
-        <f>VLOOKUP(H9,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>GameCube</v>
       </c>
     </row>
@@ -28721,11 +28654,11 @@
         <v>24</v>
       </c>
       <c r="L10" t="str">
-        <f>VLOOKUP(H10,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Half-Life 2</v>
       </c>
       <c r="M10" t="str">
-        <f>VLOOKUP(H10,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>PC</v>
       </c>
     </row>
@@ -28758,11 +28691,11 @@
         <v>30</v>
       </c>
       <c r="L11" t="str">
-        <f>VLOOKUP(H11,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Resident Evil 4</v>
       </c>
       <c r="M11" t="str">
-        <f>VLOOKUP(H11,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>GameCube</v>
       </c>
     </row>
@@ -28795,11 +28728,11 @@
         <v>39</v>
       </c>
       <c r="L12" t="str">
-        <f>VLOOKUP(H12,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>The Legend of Zelda: Twilight Princess</v>
       </c>
       <c r="M12" t="str">
-        <f>VLOOKUP(H12,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>GameCube</v>
       </c>
     </row>
@@ -28832,11 +28765,11 @@
         <v>6</v>
       </c>
       <c r="L13" t="str">
-        <f>VLOOKUP(H13,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Super Mario Galaxy</v>
       </c>
       <c r="M13" t="str">
-        <f>VLOOKUP(H13,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>Wii</v>
       </c>
     </row>
@@ -28869,11 +28802,11 @@
         <v>3</v>
       </c>
       <c r="L14" t="str">
-        <f>VLOOKUP(H14,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Grand Theft Auto IV</v>
       </c>
       <c r="M14" t="str">
-        <f>VLOOKUP(H14,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>PlayStation 3</v>
       </c>
     </row>
@@ -28906,11 +28839,11 @@
         <v>29</v>
       </c>
       <c r="L15" t="str">
-        <f>VLOOKUP(H15,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Uncharted 2: Among Thieves</v>
       </c>
       <c r="M15" t="str">
-        <f>VLOOKUP(H15,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>PlayStation 3</v>
       </c>
     </row>
@@ -28943,11 +28876,11 @@
         <v>7</v>
       </c>
       <c r="L16" t="str">
-        <f>VLOOKUP(H16,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Super Mario Galaxy 2</v>
       </c>
       <c r="M16" t="str">
-        <f>VLOOKUP(H16,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>Wii</v>
       </c>
     </row>
@@ -28980,11 +28913,11 @@
         <v>33</v>
       </c>
       <c r="L17" t="str">
-        <f>VLOOKUP(H17,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Batman: Arkham City</v>
       </c>
       <c r="M17" t="str">
-        <f>VLOOKUP(H17,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>PlayStation 3</v>
       </c>
     </row>
@@ -29017,11 +28950,11 @@
         <v>10</v>
       </c>
       <c r="L18" t="str">
-        <f>VLOOKUP(H18,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Grand Theft Auto V</v>
       </c>
       <c r="M18" t="str">
-        <f>VLOOKUP(H18,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>PlayStation 3</v>
       </c>
     </row>
@@ -29054,11 +28987,11 @@
         <v>9</v>
       </c>
       <c r="L19" t="str">
-        <f>VLOOKUP(H19,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Grand Theft Auto V</v>
       </c>
       <c r="M19" t="str">
-        <f>VLOOKUP(H19,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>Xbox One</v>
       </c>
     </row>
@@ -29091,11 +29024,11 @@
         <v>25</v>
       </c>
       <c r="L20" t="str">
-        <f>VLOOKUP(H20,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Grand Theft Auto V</v>
       </c>
       <c r="M20" t="str">
-        <f>VLOOKUP(H20,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>PC</v>
       </c>
     </row>
@@ -29128,11 +29061,11 @@
         <v>14</v>
       </c>
       <c r="L21" t="str">
-        <f>VLOOKUP(H21,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>The Legend of Zelda: Breath of the Wild</v>
       </c>
       <c r="M21" t="str">
-        <f>VLOOKUP(H21,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>Switch</v>
       </c>
     </row>
@@ -29165,11 +29098,11 @@
         <v>8</v>
       </c>
       <c r="L22" t="str">
-        <f>VLOOKUP(H22,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Red Dead Redemption 2</v>
       </c>
       <c r="M22" t="str">
-        <f>VLOOKUP(H22,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>Xbox One</v>
       </c>
     </row>
@@ -29202,11 +29135,11 @@
         <v>65</v>
       </c>
       <c r="L23" t="str">
-        <f>VLOOKUP(H23,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Persona 5 Royal</v>
       </c>
       <c r="M23" t="str">
-        <f>VLOOKUP(H23,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>PlayStation 4</v>
       </c>
     </row>
@@ -29239,11 +29172,11 @@
         <v>11</v>
       </c>
       <c r="L24" t="str">
-        <f>VLOOKUP(H24,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Disco Elysium: The Final Cut</v>
       </c>
       <c r="M24" t="str">
-        <f>VLOOKUP(H24,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>PC</v>
       </c>
     </row>
@@ -29276,11 +29209,11 @@
         <v>34</v>
       </c>
       <c r="L25" t="str">
-        <f>VLOOKUP(H25,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Portal Companion Collection</v>
       </c>
       <c r="M25" t="str">
-        <f>VLOOKUP(H25,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>Switch</v>
       </c>
     </row>
@@ -29313,11 +29246,11 @@
         <v>61</v>
       </c>
       <c r="L26" t="str">
-        <f>VLOOKUP(H26,A:E,2)</f>
+        <f t="shared" si="0"/>
         <v>Metroid Prime Remastered</v>
       </c>
       <c r="M26" t="str">
-        <f>VLOOKUP(H26,A:E,3)</f>
+        <f t="shared" si="1"/>
         <v>Switch</v>
       </c>
     </row>
@@ -30683,7 +30616,7 @@
         <v>36789</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F2:F33" si="0">D2-D3</f>
+        <f t="shared" ref="F3:F33" si="0">D2-D3</f>
         <v>1</v>
       </c>
     </row>
